--- a/data/lng_2025_price.xlsx
+++ b/data/lng_2025_price.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4106,7 +4106,67 @@
         <v>2.908999919891357</v>
       </c>
       <c r="F183" t="n">
-        <v>142217</v>
+        <v>163184</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2.852999925613403</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.869999885559082</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2.772000074386597</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.805999994277954</v>
+      </c>
+      <c r="F184" t="n">
+        <v>70892</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2.858000040054321</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.914000034332275</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.815999984741211</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.86299991607666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>55699</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2.904000043869019</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.967999935150146</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2.848000049591064</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.878999948501587</v>
+      </c>
+      <c r="F186" t="n">
+        <v>55699</v>
       </c>
     </row>
   </sheetData>

--- a/data/lng_2025_price.xlsx
+++ b/data/lng_2025_price.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4166,7 +4166,27 @@
         <v>2.878999948501587</v>
       </c>
       <c r="F186" t="n">
-        <v>55699</v>
+        <v>74214</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2.835000038146973</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.944000005722046</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2.788000106811523</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.911999940872192</v>
+      </c>
+      <c r="F187" t="n">
+        <v>74214</v>
       </c>
     </row>
   </sheetData>

--- a/data/lng_2025_price.xlsx
+++ b/data/lng_2025_price.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4186,7 +4186,107 @@
         <v>2.911999940872192</v>
       </c>
       <c r="F187" t="n">
-        <v>74214</v>
+        <v>168752</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3.266999959945679</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.299000024795532</v>
+      </c>
+      <c r="D188" t="n">
+        <v>3.132999897003174</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3.148999929428101</v>
+      </c>
+      <c r="F188" t="n">
+        <v>166628</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3.302999973297119</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.351000070571899</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3.244999885559082</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.279000043869019</v>
+      </c>
+      <c r="F189" t="n">
+        <v>162025</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3.476000070571899</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.492000102996826</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3.318000078201294</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3.331000089645386</v>
+      </c>
+      <c r="F190" t="n">
+        <v>240703</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3.441999912261963</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.585000038146973</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3.401999950408936</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.457000017166138</v>
+      </c>
+      <c r="F191" t="n">
+        <v>259354</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.323999881744385</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.450999975204468</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3.306999921798706</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.413000106811523</v>
+      </c>
+      <c r="F192" t="n">
+        <v>259354</v>
       </c>
     </row>
   </sheetData>
